--- a/docs/common struct.xlsx
+++ b/docs/common struct.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Шаблон" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t xml:space="preserve">Логотип</t>
   </si>
@@ -114,6 +115,9 @@
   <si>
     <t xml:space="preserve">Войти</t>
   </si>
+  <si>
+    <t xml:space="preserve">Абонентам</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,13 +151,58 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="5.1"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD4D1"/>
+        <bgColor rgb="FFFFFBCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,8 +239,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,7 +281,808 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFBCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFBCE4E5"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFCD4D1"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74160</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>81000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>59040</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="74160" y="8106120"/>
+          <a:ext cx="7919640" cy="532440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="dfcce4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>56880</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72000" y="5627520"/>
+          <a:ext cx="7919640" cy="532440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>56880</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72000" y="7579080"/>
+          <a:ext cx="7919640" cy="532440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="bce4e5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>82080</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>56880</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524600" y="6156720"/>
+          <a:ext cx="6467040" cy="1421640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="fffbcc"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>82800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="72000" y="6156720"/>
+          <a:ext cx="1453320" cy="1421640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="fedcc6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>16200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>86400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3893400" y="5689440"/>
+          <a:ext cx="340560" cy="424080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="949" h="1181">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="0"/>
+              </a:lnTo>
+              <a:moveTo>
+                <a:pt x="0" y="1180"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="1180"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="46800" bIns="46800" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black"/>
+              <a:ea typeface="MS Gothic"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>47520</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>27360</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924720" y="6573600"/>
+          <a:ext cx="340560" cy="424080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="949" h="1181">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="0"/>
+              </a:lnTo>
+              <a:moveTo>
+                <a:pt x="0" y="1180"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="1180"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="46800" bIns="46800" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black"/>
+              <a:ea typeface="MS Gothic"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>63360</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>43200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940560" y="7640640"/>
+          <a:ext cx="340560" cy="424080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="949" h="1181">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="0"/>
+              </a:lnTo>
+              <a:moveTo>
+                <a:pt x="0" y="1180"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="1180"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="46800" bIns="46800" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black"/>
+              <a:ea typeface="MS Gothic"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57240</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>65160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618120" y="6493680"/>
+          <a:ext cx="340560" cy="424080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="949" h="1181">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="0"/>
+              </a:lnTo>
+              <a:moveTo>
+                <a:pt x="0" y="1180"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="1180"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="46800" bIns="46800" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black"/>
+              <a:ea typeface="MS Gothic"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Изображение 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81720" y="188280"/>
+          <a:ext cx="1245960" cy="434520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>46080</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25920</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3923280" y="8165520"/>
+          <a:ext cx="340560" cy="424080"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="949" h="1181">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="0"/>
+              </a:lnTo>
+              <a:moveTo>
+                <a:pt x="0" y="1180"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="948" y="1180"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="46800" bIns="46800" anchor="ctr" anchorCtr="1"/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black"/>
+              <a:ea typeface="MS Gothic"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="ru-RU" sz="2400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>75240</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90000" y="3065760"/>
+          <a:ext cx="7830000" cy="461880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="dfcce4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -214,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A2:D35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,4 +1271,3066 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:CS1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM37" activeCellId="0" sqref="AM37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="1.28"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="7.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="7.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="5"/>
+      <c r="BX8" s="5"/>
+      <c r="BY8" s="5"/>
+      <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
+      <c r="CB8" s="5"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="5"/>
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="5"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="5"/>
+      <c r="BW9" s="5"/>
+      <c r="BX9" s="5"/>
+      <c r="BY9" s="5"/>
+      <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
+      <c r="CB9" s="5"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5"/>
+      <c r="CJ9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="5"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="5"/>
+      <c r="BX11" s="5"/>
+      <c r="BY11" s="5"/>
+      <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
+      <c r="CB11" s="5"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
+      <c r="CI11" s="5"/>
+      <c r="CJ11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+      <c r="BV12" s="5"/>
+      <c r="BW12" s="5"/>
+      <c r="BX12" s="5"/>
+      <c r="BY12" s="5"/>
+      <c r="BZ12" s="5"/>
+      <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="5"/>
+      <c r="CD12" s="5"/>
+      <c r="CE12" s="5"/>
+      <c r="CF12" s="5"/>
+      <c r="CG12" s="5"/>
+      <c r="CH12" s="5"/>
+      <c r="CI12" s="5"/>
+      <c r="CJ12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="5"/>
+      <c r="BW13" s="5"/>
+      <c r="BX13" s="5"/>
+      <c r="BY13" s="5"/>
+      <c r="BZ13" s="5"/>
+      <c r="CA13" s="5"/>
+      <c r="CB13" s="5"/>
+      <c r="CC13" s="5"/>
+      <c r="CD13" s="5"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="5"/>
+      <c r="CI13" s="5"/>
+      <c r="CJ13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
+      <c r="BP14" s="5"/>
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="5"/>
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="5"/>
+      <c r="BU14" s="5"/>
+      <c r="BV14" s="5"/>
+      <c r="BW14" s="5"/>
+      <c r="BX14" s="5"/>
+      <c r="BY14" s="5"/>
+      <c r="BZ14" s="5"/>
+      <c r="CA14" s="5"/>
+      <c r="CB14" s="5"/>
+      <c r="CC14" s="5"/>
+      <c r="CD14" s="5"/>
+      <c r="CE14" s="5"/>
+      <c r="CF14" s="5"/>
+      <c r="CG14" s="5"/>
+      <c r="CH14" s="5"/>
+      <c r="CI14" s="5"/>
+      <c r="CJ14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
+      <c r="BP15" s="5"/>
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="5"/>
+      <c r="BU15" s="5"/>
+      <c r="BV15" s="5"/>
+      <c r="BW15" s="5"/>
+      <c r="BX15" s="5"/>
+      <c r="BY15" s="5"/>
+      <c r="BZ15" s="5"/>
+      <c r="CA15" s="5"/>
+      <c r="CB15" s="5"/>
+      <c r="CC15" s="5"/>
+      <c r="CD15" s="5"/>
+      <c r="CE15" s="5"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="5"/>
+      <c r="CI15" s="5"/>
+      <c r="CJ15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5"/>
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="5"/>
+      <c r="BW16" s="5"/>
+      <c r="BX16" s="5"/>
+      <c r="BY16" s="5"/>
+      <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
+      <c r="CB16" s="5"/>
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="5"/>
+      <c r="CI16" s="5"/>
+      <c r="CJ16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5"/>
+      <c r="CB17" s="5"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
+      <c r="CH17" s="5"/>
+      <c r="CI17" s="5"/>
+      <c r="CJ17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="5"/>
+      <c r="CA18" s="5"/>
+      <c r="CB18" s="5"/>
+      <c r="CC18" s="5"/>
+      <c r="CD18" s="5"/>
+      <c r="CE18" s="5"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="5"/>
+      <c r="CH18" s="5"/>
+      <c r="CI18" s="5"/>
+      <c r="CJ18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
+      <c r="BO19" s="5"/>
+      <c r="BP19" s="5"/>
+      <c r="BQ19" s="5"/>
+      <c r="BR19" s="5"/>
+      <c r="BS19" s="5"/>
+      <c r="BT19" s="5"/>
+      <c r="BU19" s="5"/>
+      <c r="BV19" s="5"/>
+      <c r="BW19" s="5"/>
+      <c r="BX19" s="5"/>
+      <c r="BY19" s="5"/>
+      <c r="BZ19" s="5"/>
+      <c r="CA19" s="5"/>
+      <c r="CB19" s="5"/>
+      <c r="CC19" s="5"/>
+      <c r="CD19" s="5"/>
+      <c r="CE19" s="5"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="5"/>
+      <c r="CI19" s="5"/>
+      <c r="CJ19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+      <c r="BV20" s="5"/>
+      <c r="BW20" s="5"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="5"/>
+      <c r="BZ20" s="5"/>
+      <c r="CA20" s="5"/>
+      <c r="CB20" s="5"/>
+      <c r="CC20" s="5"/>
+      <c r="CD20" s="5"/>
+      <c r="CE20" s="5"/>
+      <c r="CF20" s="5"/>
+      <c r="CG20" s="5"/>
+      <c r="CH20" s="5"/>
+      <c r="CI20" s="5"/>
+      <c r="CJ20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="5"/>
+      <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="5"/>
+      <c r="CE21" s="5"/>
+      <c r="CF21" s="5"/>
+      <c r="CG21" s="5"/>
+      <c r="CH21" s="5"/>
+      <c r="CI21" s="5"/>
+      <c r="CJ21" s="5"/>
+      <c r="CM21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
+      <c r="BZ22" s="5"/>
+      <c r="CA22" s="5"/>
+      <c r="CB22" s="5"/>
+      <c r="CC22" s="5"/>
+      <c r="CD22" s="5"/>
+      <c r="CE22" s="5"/>
+      <c r="CF22" s="5"/>
+      <c r="CG22" s="5"/>
+      <c r="CH22" s="5"/>
+      <c r="CI22" s="5"/>
+      <c r="CJ22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BU23" s="5"/>
+      <c r="BV23" s="5"/>
+      <c r="BW23" s="5"/>
+      <c r="BX23" s="5"/>
+      <c r="BY23" s="5"/>
+      <c r="BZ23" s="5"/>
+      <c r="CA23" s="5"/>
+      <c r="CB23" s="5"/>
+      <c r="CC23" s="5"/>
+      <c r="CD23" s="5"/>
+      <c r="CE23" s="5"/>
+      <c r="CF23" s="5"/>
+      <c r="CG23" s="5"/>
+      <c r="CH23" s="5"/>
+      <c r="CI23" s="5"/>
+      <c r="CJ23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="5"/>
+      <c r="BZ24" s="5"/>
+      <c r="CA24" s="5"/>
+      <c r="CB24" s="5"/>
+      <c r="CC24" s="5"/>
+      <c r="CD24" s="5"/>
+      <c r="CE24" s="5"/>
+      <c r="CF24" s="5"/>
+      <c r="CG24" s="5"/>
+      <c r="CH24" s="5"/>
+      <c r="CI24" s="5"/>
+      <c r="CJ24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="5"/>
+      <c r="BQ25" s="5"/>
+      <c r="BR25" s="5"/>
+      <c r="BS25" s="5"/>
+      <c r="BT25" s="5"/>
+      <c r="BU25" s="5"/>
+      <c r="BV25" s="5"/>
+      <c r="BW25" s="5"/>
+      <c r="BX25" s="5"/>
+      <c r="BY25" s="5"/>
+      <c r="BZ25" s="5"/>
+      <c r="CA25" s="5"/>
+      <c r="CB25" s="5"/>
+      <c r="CC25" s="5"/>
+      <c r="CD25" s="5"/>
+      <c r="CE25" s="5"/>
+      <c r="CF25" s="5"/>
+      <c r="CG25" s="5"/>
+      <c r="CH25" s="5"/>
+      <c r="CI25" s="5"/>
+      <c r="CJ25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="5"/>
+      <c r="BP26" s="5"/>
+      <c r="BQ26" s="5"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5"/>
+      <c r="BU26" s="5"/>
+      <c r="BV26" s="5"/>
+      <c r="BW26" s="5"/>
+      <c r="BX26" s="5"/>
+      <c r="BY26" s="5"/>
+      <c r="BZ26" s="5"/>
+      <c r="CA26" s="5"/>
+      <c r="CB26" s="5"/>
+      <c r="CC26" s="5"/>
+      <c r="CD26" s="5"/>
+      <c r="CE26" s="5"/>
+      <c r="CF26" s="5"/>
+      <c r="CG26" s="5"/>
+      <c r="CH26" s="5"/>
+      <c r="CI26" s="5"/>
+      <c r="CJ26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="5"/>
+      <c r="BP27" s="5"/>
+      <c r="BQ27" s="5"/>
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5"/>
+      <c r="BU27" s="5"/>
+      <c r="BV27" s="5"/>
+      <c r="BW27" s="5"/>
+      <c r="BX27" s="5"/>
+      <c r="BY27" s="5"/>
+      <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
+      <c r="CB27" s="5"/>
+      <c r="CC27" s="5"/>
+      <c r="CD27" s="5"/>
+      <c r="CE27" s="5"/>
+      <c r="CF27" s="5"/>
+      <c r="CG27" s="5"/>
+      <c r="CH27" s="5"/>
+      <c r="CI27" s="5"/>
+      <c r="CJ27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+      <c r="BN28" s="5"/>
+      <c r="BO28" s="5"/>
+      <c r="BP28" s="5"/>
+      <c r="BQ28" s="5"/>
+      <c r="BR28" s="5"/>
+      <c r="BS28" s="5"/>
+      <c r="BT28" s="5"/>
+      <c r="BU28" s="5"/>
+      <c r="BV28" s="5"/>
+      <c r="BW28" s="5"/>
+      <c r="BX28" s="5"/>
+      <c r="BY28" s="5"/>
+      <c r="BZ28" s="5"/>
+      <c r="CA28" s="5"/>
+      <c r="CB28" s="5"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="5"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
+      <c r="CH28" s="5"/>
+      <c r="CI28" s="5"/>
+      <c r="CJ28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
+      <c r="BK29" s="5"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="5"/>
+      <c r="BQ29" s="5"/>
+      <c r="BR29" s="5"/>
+      <c r="BS29" s="5"/>
+      <c r="BT29" s="5"/>
+      <c r="BU29" s="5"/>
+      <c r="BV29" s="5"/>
+      <c r="BW29" s="5"/>
+      <c r="BX29" s="5"/>
+      <c r="BY29" s="5"/>
+      <c r="BZ29" s="5"/>
+      <c r="CA29" s="5"/>
+      <c r="CB29" s="5"/>
+      <c r="CC29" s="5"/>
+      <c r="CD29" s="5"/>
+      <c r="CE29" s="5"/>
+      <c r="CF29" s="5"/>
+      <c r="CG29" s="5"/>
+      <c r="CH29" s="5"/>
+      <c r="CI29" s="5"/>
+      <c r="CJ29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CS33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="R5:Z6"/>
+    <mergeCell ref="AB5:AI6"/>
+    <mergeCell ref="AK5:AQ6"/>
+    <mergeCell ref="AS5:AY6"/>
+    <mergeCell ref="CD5:CH6"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/common struct.xlsx
+++ b/docs/common struct.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t xml:space="preserve">Логотип</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">Личный кабинет (Внести показания, узнать состояние баланса, заказать и оплатить услуги.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание сайта</t>
   </si>
   <si>
     <t xml:space="preserve">Войти</t>
@@ -409,9 +415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -421,7 +427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="74160" y="8106120"/>
-          <a:ext cx="7918200" cy="531000"/>
+          <a:ext cx="7917840" cy="530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -453,9 +459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -465,7 +471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="5627520"/>
-          <a:ext cx="7918200" cy="531000"/>
+          <a:ext cx="7917840" cy="530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -497,9 +503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -509,7 +515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="7579080"/>
-          <a:ext cx="7918200" cy="531000"/>
+          <a:ext cx="7917840" cy="530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -541,9 +547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -553,7 +559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1524600" y="6156720"/>
-          <a:ext cx="6465600" cy="1420200"/>
+          <a:ext cx="6465240" cy="1419840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,9 +591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -597,7 +603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="6156720"/>
-          <a:ext cx="1451880" cy="1420200"/>
+          <a:ext cx="1451520" cy="1419840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,9 +635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -641,7 +647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3893400" y="5689440"/>
-          <a:ext cx="339120" cy="422640"/>
+          <a:ext cx="338760" cy="422280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -716,9 +722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
+      <xdr:colOff>25560</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -728,7 +734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3924720" y="6573600"/>
-          <a:ext cx="339120" cy="422640"/>
+          <a:ext cx="338760" cy="422280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -803,9 +809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>41400</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -815,7 +821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3940560" y="7640640"/>
-          <a:ext cx="339120" cy="422640"/>
+          <a:ext cx="338760" cy="422280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -890,9 +896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55800</xdr:colOff>
+      <xdr:colOff>55440</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -902,7 +908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="618120" y="6493680"/>
-          <a:ext cx="339120" cy="422640"/>
+          <a:ext cx="338760" cy="422280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -977,9 +983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -993,7 +999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81720" y="188280"/>
-          <a:ext cx="1244520" cy="433080"/>
+          <a:ext cx="1244160" cy="432720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1026,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3923280" y="8165520"/>
-          <a:ext cx="339120" cy="422640"/>
+          <a:ext cx="338760" cy="422280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1101,9 +1107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>87</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1113,7 +1119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90000" y="3065760"/>
-          <a:ext cx="7828560" cy="460440"/>
+          <a:ext cx="7828200" cy="460080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A2:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,6 +1396,16 @@
         <v>41</v>
       </c>
     </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>39</v>
@@ -1397,7 +1413,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1653,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -1697,7 +1713,7 @@
       <c r="CB5" s="4"/>
       <c r="CC5" s="4"/>
       <c r="CD5" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CE5" s="6"/>
       <c r="CF5" s="6"/>

--- a/docs/common struct.xlsx
+++ b/docs/common struct.xlsx
@@ -179,19 +179,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -218,7 +215,6 @@
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
       <family val="0"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -415,9 +411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
+      <xdr:colOff>56880</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -427,7 +423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="74160" y="8106120"/>
-          <a:ext cx="7917840" cy="530640"/>
+          <a:ext cx="7917480" cy="530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -459,9 +455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -471,7 +467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="5627520"/>
-          <a:ext cx="7917840" cy="530640"/>
+          <a:ext cx="7917480" cy="530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,9 +499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -515,7 +511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="7579080"/>
-          <a:ext cx="7917840" cy="530640"/>
+          <a:ext cx="7917480" cy="530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,9 +543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -559,7 +555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1524600" y="6156720"/>
-          <a:ext cx="6465240" cy="1419840"/>
+          <a:ext cx="6464880" cy="1419480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,9 +587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -603,7 +599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="6156720"/>
-          <a:ext cx="1451520" cy="1419840"/>
+          <a:ext cx="1451160" cy="1419480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -635,9 +631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -647,7 +643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3893400" y="5689440"/>
-          <a:ext cx="338760" cy="422280"/>
+          <a:ext cx="338400" cy="421920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -722,9 +718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -734,7 +730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3924720" y="6573600"/>
-          <a:ext cx="338760" cy="422280"/>
+          <a:ext cx="338400" cy="421920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -809,9 +805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>41400</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -821,7 +817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3940560" y="7640640"/>
-          <a:ext cx="338760" cy="422280"/>
+          <a:ext cx="338400" cy="421920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -896,9 +892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -908,7 +904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="618120" y="6493680"/>
-          <a:ext cx="338760" cy="422280"/>
+          <a:ext cx="338400" cy="421920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -983,9 +979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -999,7 +995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81720" y="188280"/>
-          <a:ext cx="1244160" cy="432720"/>
+          <a:ext cx="1243800" cy="432360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,9 +1016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1032,7 +1028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3923280" y="8165520"/>
-          <a:ext cx="338760" cy="422280"/>
+          <a:ext cx="338400" cy="421920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1107,9 +1103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>87</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1119,7 +1115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90000" y="3065760"/>
-          <a:ext cx="7828200" cy="460080"/>
+          <a:ext cx="7827840" cy="459720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1152,8 +1148,8 @@
   </sheetPr>
   <dimension ref="A2:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1276,17 +1272,17 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/common struct.xlsx
+++ b/docs/common struct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">Логотип</t>
   </si>
@@ -179,16 +179,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -215,6 +218,7 @@
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -411,9 +415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -423,7 +427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="74160" y="8106120"/>
-          <a:ext cx="7917480" cy="530280"/>
+          <a:ext cx="7917120" cy="529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -455,9 +459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -467,7 +471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="5627520"/>
-          <a:ext cx="7917480" cy="530280"/>
+          <a:ext cx="7917120" cy="529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,9 +503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -511,7 +515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="7579080"/>
-          <a:ext cx="7917480" cy="530280"/>
+          <a:ext cx="7917120" cy="529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,9 +547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -555,7 +559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1524600" y="6156720"/>
-          <a:ext cx="6464880" cy="1419480"/>
+          <a:ext cx="6464520" cy="1419120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,9 +591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>80280</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -599,7 +603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="72000" y="6156720"/>
-          <a:ext cx="1451160" cy="1419480"/>
+          <a:ext cx="1450800" cy="1419120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -631,9 +635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -643,7 +647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3893400" y="5689440"/>
-          <a:ext cx="338400" cy="421920"/>
+          <a:ext cx="338040" cy="421560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -718,9 +722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
+      <xdr:colOff>24840</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -730,7 +734,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3924720" y="6573600"/>
-          <a:ext cx="338400" cy="421920"/>
+          <a:ext cx="338040" cy="421560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -805,9 +809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
+      <xdr:colOff>40680</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -817,7 +821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3940560" y="7640640"/>
-          <a:ext cx="338400" cy="421920"/>
+          <a:ext cx="338040" cy="421560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -892,9 +896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -904,7 +908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="618120" y="6493680"/>
-          <a:ext cx="338400" cy="421920"/>
+          <a:ext cx="338040" cy="421560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -979,9 +983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,7 +999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81720" y="188280"/>
-          <a:ext cx="1243800" cy="432360"/>
+          <a:ext cx="1243440" cy="432000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1028,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3923280" y="8165520"/>
-          <a:ext cx="338400" cy="421920"/>
+          <a:ext cx="338040" cy="421560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1103,9 +1107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>87</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1115,7 +1119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90000" y="3065760"/>
-          <a:ext cx="7827840" cy="459720"/>
+          <a:ext cx="7827480" cy="459360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A2:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1292,17 +1296,17 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1312,17 +1316,17 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1342,27 +1346,27 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1430,8 +1434,8 @@
   </sheetPr>
   <dimension ref="B1:CS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK5" activeCellId="0" sqref="AK5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y48" activeCellId="0" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,9 +1673,7 @@
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="4"/>
-      <c r="AS5" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="AS5" s="6"/>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
